--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Pros1-Tyro3.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Pros1-Tyro3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,55 +531,55 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>29.9794649118785</v>
+        <v>30.168014</v>
       </c>
       <c r="H2">
-        <v>29.9794649118785</v>
+        <v>90.504042</v>
       </c>
       <c r="I2">
-        <v>0.2354521083877472</v>
+        <v>0.2349227827725553</v>
       </c>
       <c r="J2">
-        <v>0.2354521083877472</v>
+        <v>0.2349227827725553</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>2.79212411372246</v>
+        <v>0.2333953333333333</v>
       </c>
       <c r="N2">
-        <v>2.79212411372246</v>
+        <v>0.700186</v>
       </c>
       <c r="O2">
-        <v>0.9132692313612577</v>
+        <v>0.0679343338760815</v>
       </c>
       <c r="P2">
-        <v>0.9132692313612577</v>
+        <v>0.0679343338760815</v>
       </c>
       <c r="Q2">
-        <v>83.70638689695235</v>
+        <v>7.041073683534666</v>
       </c>
       <c r="R2">
-        <v>83.70638689695235</v>
+        <v>63.369663151812</v>
       </c>
       <c r="S2">
-        <v>0.2150311660496654</v>
+        <v>0.01595932275996894</v>
       </c>
       <c r="T2">
-        <v>0.2150311660496654</v>
+        <v>0.01595932275996894</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,60 +593,60 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>29.9794649118785</v>
+        <v>30.168014</v>
       </c>
       <c r="H3">
-        <v>29.9794649118785</v>
+        <v>90.504042</v>
       </c>
       <c r="I3">
-        <v>0.2354521083877472</v>
+        <v>0.2349227827725553</v>
       </c>
       <c r="J3">
-        <v>0.2354521083877472</v>
+        <v>0.2349227827725553</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.26516065821791</v>
+        <v>2.855037666666667</v>
       </c>
       <c r="N3">
-        <v>0.26516065821791</v>
+        <v>8.565113</v>
       </c>
       <c r="O3">
-        <v>0.08673076863874221</v>
+        <v>0.8310152534160438</v>
       </c>
       <c r="P3">
-        <v>0.08673076863874221</v>
+        <v>0.8310152534160438</v>
       </c>
       <c r="Q3">
-        <v>7.949374649054441</v>
+        <v>86.13081629852734</v>
       </c>
       <c r="R3">
-        <v>7.949374649054441</v>
+        <v>775.177346686746</v>
       </c>
       <c r="S3">
-        <v>0.02042094233808176</v>
+        <v>0.1952244158589373</v>
       </c>
       <c r="T3">
-        <v>0.02042094233808176</v>
+        <v>0.1952244158589373</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -655,55 +655,55 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>65.67807409168709</v>
+        <v>30.168014</v>
       </c>
       <c r="H4">
-        <v>65.67807409168709</v>
+        <v>90.504042</v>
       </c>
       <c r="I4">
-        <v>0.5158211150595693</v>
+        <v>0.2349227827725553</v>
       </c>
       <c r="J4">
-        <v>0.5158211150595693</v>
+        <v>0.2349227827725553</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.79212411372246</v>
+        <v>0.347169</v>
       </c>
       <c r="N4">
-        <v>2.79212411372246</v>
+        <v>1.041507</v>
       </c>
       <c r="O4">
-        <v>0.9132692313612577</v>
+        <v>0.1010504127078748</v>
       </c>
       <c r="P4">
-        <v>0.9132692313612577</v>
+        <v>0.1010504127078748</v>
       </c>
       <c r="Q4">
-        <v>183.3813344142499</v>
+        <v>10.473399252366</v>
       </c>
       <c r="R4">
-        <v>183.3813344142499</v>
+        <v>94.260593271294</v>
       </c>
       <c r="S4">
-        <v>0.4710835532703597</v>
+        <v>0.02373904415364913</v>
       </c>
       <c r="T4">
-        <v>0.4710835532703597</v>
+        <v>0.02373904415364913</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,60 +717,60 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>65.67807409168709</v>
+        <v>65.93392299999999</v>
       </c>
       <c r="H5">
-        <v>65.67807409168709</v>
+        <v>197.801769</v>
       </c>
       <c r="I5">
-        <v>0.5158211150595693</v>
+        <v>0.5134372010789768</v>
       </c>
       <c r="J5">
-        <v>0.5158211150595693</v>
+        <v>0.5134372010789768</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.26516065821791</v>
+        <v>0.2333953333333333</v>
       </c>
       <c r="N5">
-        <v>0.26516065821791</v>
+        <v>0.700186</v>
       </c>
       <c r="O5">
-        <v>0.08673076863874221</v>
+        <v>0.0679343338760815</v>
       </c>
       <c r="P5">
-        <v>0.08673076863874221</v>
+        <v>0.0679343338760815</v>
       </c>
       <c r="Q5">
-        <v>17.41524135663641</v>
+        <v>15.38866993655933</v>
       </c>
       <c r="R5">
-        <v>17.41524135663641</v>
+        <v>138.498029429034</v>
       </c>
       <c r="S5">
-        <v>0.04473756178920953</v>
+        <v>0.03488001424250001</v>
       </c>
       <c r="T5">
-        <v>0.04473756178920953</v>
+        <v>0.03488001424250001</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -782,57 +782,57 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>9.869504730580649</v>
+        <v>65.93392299999999</v>
       </c>
       <c r="H6">
-        <v>9.869504730580649</v>
+        <v>197.801769</v>
       </c>
       <c r="I6">
-        <v>0.07751291440286252</v>
+        <v>0.5134372010789768</v>
       </c>
       <c r="J6">
-        <v>0.07751291440286252</v>
+        <v>0.5134372010789768</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.79212411372246</v>
+        <v>2.855037666666667</v>
       </c>
       <c r="N6">
-        <v>2.79212411372246</v>
+        <v>8.565113</v>
       </c>
       <c r="O6">
-        <v>0.9132692313612577</v>
+        <v>0.8310152534160438</v>
       </c>
       <c r="P6">
-        <v>0.9132692313612577</v>
+        <v>0.8310152534160438</v>
       </c>
       <c r="Q6">
-        <v>27.55688214875212</v>
+        <v>188.2438336760997</v>
       </c>
       <c r="R6">
-        <v>27.55688214875212</v>
+        <v>1694.194503084897</v>
       </c>
       <c r="S6">
-        <v>0.07079015975727322</v>
+        <v>0.4266741457678702</v>
       </c>
       <c r="T6">
-        <v>0.07079015975727322</v>
+        <v>0.4266741457678702</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>25</v>
@@ -844,57 +844,57 @@
         <v>24</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>9.869504730580649</v>
+        <v>65.93392299999999</v>
       </c>
       <c r="H7">
-        <v>9.869504730580649</v>
+        <v>197.801769</v>
       </c>
       <c r="I7">
-        <v>0.07751291440286252</v>
+        <v>0.5134372010789768</v>
       </c>
       <c r="J7">
-        <v>0.07751291440286252</v>
+        <v>0.5134372010789768</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.26516065821791</v>
+        <v>0.347169</v>
       </c>
       <c r="N7">
-        <v>0.26516065821791</v>
+        <v>1.041507</v>
       </c>
       <c r="O7">
-        <v>0.08673076863874221</v>
+        <v>0.1010504127078748</v>
       </c>
       <c r="P7">
-        <v>0.08673076863874221</v>
+        <v>0.1010504127078748</v>
       </c>
       <c r="Q7">
-        <v>2.617004370645541</v>
+        <v>22.890214113987</v>
       </c>
       <c r="R7">
-        <v>2.617004370645541</v>
+        <v>206.011927025883</v>
       </c>
       <c r="S7">
-        <v>0.006722754645589298</v>
+        <v>0.0518830410686067</v>
       </c>
       <c r="T7">
-        <v>0.006722754645589298</v>
+        <v>0.0518830410686067</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -903,60 +903,60 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>15.8642204396306</v>
+        <v>9.984842</v>
       </c>
       <c r="H8">
-        <v>15.8642204396306</v>
+        <v>29.954526</v>
       </c>
       <c r="I8">
-        <v>0.1245940900352437</v>
+        <v>0.07775344005688564</v>
       </c>
       <c r="J8">
-        <v>0.1245940900352437</v>
+        <v>0.07775344005688566</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>2.79212411372246</v>
+        <v>0.2333953333333333</v>
       </c>
       <c r="N8">
-        <v>2.79212411372246</v>
+        <v>0.700186</v>
       </c>
       <c r="O8">
-        <v>0.9132692313612577</v>
+        <v>0.0679343338760815</v>
       </c>
       <c r="P8">
-        <v>0.9132692313612577</v>
+        <v>0.0679343338760815</v>
       </c>
       <c r="Q8">
-        <v>44.29487243490133</v>
+        <v>2.330415526870667</v>
       </c>
       <c r="R8">
-        <v>44.29487243490133</v>
+        <v>20.973739741836</v>
       </c>
       <c r="S8">
-        <v>0.1137879488386423</v>
+        <v>0.005282128156838359</v>
       </c>
       <c r="T8">
-        <v>0.1137879488386423</v>
+        <v>0.00528212815683836</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -965,60 +965,60 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>15.8642204396306</v>
+        <v>9.984842</v>
       </c>
       <c r="H9">
-        <v>15.8642204396306</v>
+        <v>29.954526</v>
       </c>
       <c r="I9">
-        <v>0.1245940900352437</v>
+        <v>0.07775344005688564</v>
       </c>
       <c r="J9">
-        <v>0.1245940900352437</v>
+        <v>0.07775344005688566</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.26516065821791</v>
+        <v>2.855037666666667</v>
       </c>
       <c r="N9">
-        <v>0.26516065821791</v>
+        <v>8.565113</v>
       </c>
       <c r="O9">
-        <v>0.08673076863874221</v>
+        <v>0.8310152534160438</v>
       </c>
       <c r="P9">
-        <v>0.08673076863874221</v>
+        <v>0.8310152534160438</v>
       </c>
       <c r="Q9">
-        <v>4.206567133886471</v>
+        <v>28.50710000571533</v>
       </c>
       <c r="R9">
-        <v>4.206567133886471</v>
+        <v>256.563900051438</v>
       </c>
       <c r="S9">
-        <v>0.01080614119660134</v>
+        <v>0.06461429469284199</v>
       </c>
       <c r="T9">
-        <v>0.01080614119660134</v>
+        <v>0.06461429469284199</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,60 +1027,60 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>5.93596647691549</v>
+        <v>9.984842</v>
       </c>
       <c r="H10">
-        <v>5.93596647691549</v>
+        <v>29.954526</v>
       </c>
       <c r="I10">
-        <v>0.04661977211457723</v>
+        <v>0.07775344005688564</v>
       </c>
       <c r="J10">
-        <v>0.04661977211457723</v>
+        <v>0.07775344005688566</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.79212411372246</v>
+        <v>0.347169</v>
       </c>
       <c r="N10">
-        <v>2.79212411372246</v>
+        <v>1.041507</v>
       </c>
       <c r="O10">
-        <v>0.9132692313612577</v>
+        <v>0.1010504127078748</v>
       </c>
       <c r="P10">
-        <v>0.9132692313612577</v>
+        <v>0.1010504127078748</v>
       </c>
       <c r="Q10">
-        <v>16.5739551384439</v>
+        <v>3.466427612298</v>
       </c>
       <c r="R10">
-        <v>16.5739551384439</v>
+        <v>31.197848510682</v>
       </c>
       <c r="S10">
-        <v>0.04257640344531694</v>
+        <v>0.007857017207205297</v>
       </c>
       <c r="T10">
-        <v>0.04257640344531694</v>
+        <v>0.007857017207205299</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,55 +1089,365 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>16.22962566666667</v>
+      </c>
+      <c r="H11">
+        <v>48.688877</v>
+      </c>
+      <c r="I11">
+        <v>0.1263824932251166</v>
+      </c>
+      <c r="J11">
+        <v>0.1263824932251166</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M11">
+        <v>0.2333953333333333</v>
+      </c>
+      <c r="N11">
+        <v>0.700186</v>
+      </c>
+      <c r="O11">
+        <v>0.0679343338760815</v>
+      </c>
+      <c r="P11">
+        <v>0.0679343338760815</v>
+      </c>
+      <c r="Q11">
+        <v>3.787918892346889</v>
+      </c>
+      <c r="R11">
+        <v>34.091270031122</v>
+      </c>
+      <c r="S11">
+        <v>0.008585710490846677</v>
+      </c>
+      <c r="T11">
+        <v>0.008585710490846677</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>16.22962566666667</v>
+      </c>
+      <c r="H12">
+        <v>48.688877</v>
+      </c>
+      <c r="I12">
+        <v>0.1263824932251166</v>
+      </c>
+      <c r="J12">
+        <v>0.1263824932251166</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>2.855037666666667</v>
+      </c>
+      <c r="N12">
+        <v>8.565113</v>
+      </c>
+      <c r="O12">
+        <v>0.8310152534160438</v>
+      </c>
+      <c r="P12">
+        <v>0.8310152534160438</v>
+      </c>
+      <c r="Q12">
+        <v>46.33619259423345</v>
+      </c>
+      <c r="R12">
+        <v>417.025733348101</v>
+      </c>
+      <c r="S12">
+        <v>0.1050257796348217</v>
+      </c>
+      <c r="T12">
+        <v>0.1050257796348217</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>5.93596647691549</v>
-      </c>
-      <c r="H11">
-        <v>5.93596647691549</v>
-      </c>
-      <c r="I11">
-        <v>0.04661977211457723</v>
-      </c>
-      <c r="J11">
-        <v>0.04661977211457723</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>0.26516065821791</v>
-      </c>
-      <c r="N11">
-        <v>0.26516065821791</v>
-      </c>
-      <c r="O11">
-        <v>0.08673076863874221</v>
-      </c>
-      <c r="P11">
-        <v>0.08673076863874221</v>
-      </c>
-      <c r="Q11">
-        <v>1.57398477817836</v>
-      </c>
-      <c r="R11">
-        <v>1.57398477817836</v>
-      </c>
-      <c r="S11">
-        <v>0.004043368669260283</v>
-      </c>
-      <c r="T11">
-        <v>0.004043368669260283</v>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>16.22962566666667</v>
+      </c>
+      <c r="H13">
+        <v>48.688877</v>
+      </c>
+      <c r="I13">
+        <v>0.1263824932251166</v>
+      </c>
+      <c r="J13">
+        <v>0.1263824932251166</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.347169</v>
+      </c>
+      <c r="N13">
+        <v>1.041507</v>
+      </c>
+      <c r="O13">
+        <v>0.1010504127078748</v>
+      </c>
+      <c r="P13">
+        <v>0.1010504127078748</v>
+      </c>
+      <c r="Q13">
+        <v>5.634422913071</v>
+      </c>
+      <c r="R13">
+        <v>50.709806217639</v>
+      </c>
+      <c r="S13">
+        <v>0.01277100309944822</v>
+      </c>
+      <c r="T13">
+        <v>0.01277100309944822</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>6.100318666666666</v>
+      </c>
+      <c r="H14">
+        <v>18.300956</v>
+      </c>
+      <c r="I14">
+        <v>0.04750408286646571</v>
+      </c>
+      <c r="J14">
+        <v>0.04750408286646571</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.2333953333333333</v>
+      </c>
+      <c r="N14">
+        <v>0.700186</v>
+      </c>
+      <c r="O14">
+        <v>0.0679343338760815</v>
+      </c>
+      <c r="P14">
+        <v>0.0679343338760815</v>
+      </c>
+      <c r="Q14">
+        <v>1.423785908646222</v>
+      </c>
+      <c r="R14">
+        <v>12.814073177816</v>
+      </c>
+      <c r="S14">
+        <v>0.003227158225927524</v>
+      </c>
+      <c r="T14">
+        <v>0.003227158225927524</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>6.100318666666666</v>
+      </c>
+      <c r="H15">
+        <v>18.300956</v>
+      </c>
+      <c r="I15">
+        <v>0.04750408286646571</v>
+      </c>
+      <c r="J15">
+        <v>0.04750408286646571</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>2.855037666666667</v>
+      </c>
+      <c r="N15">
+        <v>8.565113</v>
+      </c>
+      <c r="O15">
+        <v>0.8310152534160438</v>
+      </c>
+      <c r="P15">
+        <v>0.8310152534160438</v>
+      </c>
+      <c r="Q15">
+        <v>17.41663957200311</v>
+      </c>
+      <c r="R15">
+        <v>156.749756148028</v>
+      </c>
+      <c r="S15">
+        <v>0.03947661746157274</v>
+      </c>
+      <c r="T15">
+        <v>0.03947661746157275</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>6.100318666666666</v>
+      </c>
+      <c r="H16">
+        <v>18.300956</v>
+      </c>
+      <c r="I16">
+        <v>0.04750408286646571</v>
+      </c>
+      <c r="J16">
+        <v>0.04750408286646571</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.347169</v>
+      </c>
+      <c r="N16">
+        <v>1.041507</v>
+      </c>
+      <c r="O16">
+        <v>0.1010504127078748</v>
+      </c>
+      <c r="P16">
+        <v>0.1010504127078748</v>
+      </c>
+      <c r="Q16">
+        <v>2.117841531188</v>
+      </c>
+      <c r="R16">
+        <v>19.060573780692</v>
+      </c>
+      <c r="S16">
+        <v>0.004800307178965442</v>
+      </c>
+      <c r="T16">
+        <v>0.004800307178965443</v>
       </c>
     </row>
   </sheetData>
